--- a/sortingHomework/from_excel_unsorted_array.xlsx
+++ b/sortingHomework/from_excel_unsorted_array.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Quorra\Python-Projects\Sorting-Algorithms-Visualisation\sortingHomework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F50383B-5D4F-44D2-9B9D-CEF351696AD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DDB459E-2676-4FC2-A73D-BD23F660E61F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8295" yWindow="4860" windowWidth="14880" windowHeight="11340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3345" yWindow="4860" windowWidth="14880" windowHeight="11340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
@@ -402,87 +402,60 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>-23</v>
       </c>
-      <c r="B1">
-        <v>-55</v>
-      </c>
-      <c r="C1">
-        <v>-8</v>
-      </c>
-      <c r="D1">
-        <v>321</v>
-      </c>
-      <c r="E1">
-        <v>64</v>
-      </c>
-      <c r="F1">
-        <v>276</v>
-      </c>
-      <c r="G1">
-        <v>100</v>
-      </c>
-      <c r="H1">
-        <v>232</v>
-      </c>
-      <c r="I1">
-        <v>3</v>
-      </c>
-      <c r="J1">
-        <v>-85</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>-55</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>-8</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>321</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>64</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>276</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>232</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>-85</v>
       </c>
